--- a/MYTRED/R_calc_Mytred_2020/Data/Mytred_Growth_Summer_2021_Anton_modified.xlsx
+++ b/MYTRED/R_calc_Mytred_2020/Data/Mytred_Growth_Summer_2021_Anton_modified.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Mytred\Mytred_Summer_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Text\Article\Articles_in_progress\MYTRED\R_calc_Mytred_2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196DCB7-5859-4A9C-B3A5-C983E4E9D17A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth_data" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Growth_data!$A$1:$J$354</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист2!$A$1:$C$327</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -199,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -533,15 +534,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -578,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2">
         <v>601</v>
       </c>
@@ -648,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4">
         <v>603</v>
       </c>
@@ -683,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5">
         <v>604</v>
       </c>
@@ -718,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6">
         <v>605</v>
       </c>
@@ -753,7 +755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7">
         <v>606</v>
       </c>
@@ -788,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8">
         <v>607</v>
       </c>
@@ -858,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10">
         <v>609</v>
       </c>
@@ -893,7 +895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11">
         <v>610</v>
       </c>
@@ -963,7 +965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13">
         <v>612</v>
       </c>
@@ -998,7 +1000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14">
         <v>613</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15">
         <v>614</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16">
         <v>615</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>616</v>
       </c>
@@ -1138,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>617</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19">
         <v>618</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>619</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21">
         <v>620</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22">
         <v>621</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23">
         <v>622</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>624</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>625</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27">
         <v>626</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28">
         <v>627</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29">
         <v>628</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30">
         <v>629</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31">
         <v>630</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33">
         <v>632</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35">
         <v>634</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36">
         <v>635</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38">
         <v>637</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39">
         <v>638</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41">
         <v>640</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42">
         <v>641</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43">
         <v>642</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44">
         <v>643</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45">
         <v>644</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46">
         <v>645</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47">
         <v>646</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48">
         <v>647</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49">
         <v>648</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50">
         <v>649</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51">
         <v>650</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53">
         <v>652</v>
       </c>
@@ -2398,7 +2400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54">
         <v>653</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55">
         <v>654</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57">
         <v>656</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58">
         <v>657</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61">
         <v>660</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62">
         <v>661</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63">
         <v>662</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64">
         <v>663</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65">
         <v>664</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66">
         <v>665</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67">
         <v>666</v>
       </c>
@@ -2888,7 +2890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68">
         <v>667</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69">
         <v>668</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71">
         <v>670</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73">
         <v>672</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75">
         <v>674</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76">
         <v>675</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77">
         <v>676</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78">
         <v>677</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79">
         <v>678</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80">
         <v>679</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82">
         <v>681</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83">
         <v>682</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84">
         <v>683</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86">
         <v>685</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87">
         <v>686</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88">
         <v>687</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89">
         <v>688</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90">
         <v>689</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94">
         <v>693</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95">
         <v>694</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96">
         <v>695</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97">
         <v>696</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99">
         <v>698</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100">
         <v>699</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102">
         <v>701</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103">
         <v>702</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105">
         <v>704</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106">
         <v>705</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107">
         <v>706</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109">
         <v>708</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110">
         <v>709</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111">
         <v>710</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" hidden="1">
       <c r="A112">
         <v>711</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113">
         <v>712</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114">
         <v>713</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115">
         <v>714</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117">
         <v>716</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118">
         <v>717</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119">
         <v>718</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120">
         <v>719</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121">
         <v>720</v>
       </c>
@@ -4778,7 +4780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122">
         <v>721</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125">
         <v>724</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126">
         <v>725</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127">
         <v>726</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129">
         <v>728</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130">
         <v>729</v>
       </c>
@@ -5093,7 +5095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131">
         <v>730</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133">
         <v>732</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135">
         <v>734</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136">
         <v>735</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137">
         <v>736</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139">
         <v>738</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140">
         <v>739</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142">
         <v>741</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143">
         <v>742</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144">
         <v>743</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145">
         <v>744</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146">
         <v>745</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147">
         <v>746</v>
       </c>
@@ -5688,7 +5690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148">
         <v>747</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149">
         <v>748</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150">
         <v>749</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151">
         <v>750</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152">
         <v>751</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153">
         <v>752</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154">
         <v>753</v>
       </c>
@@ -5933,7 +5935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155">
         <v>754</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160">
         <v>759</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163">
         <v>762</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164">
         <v>763</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165">
         <v>764</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166">
         <v>765</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167">
         <v>766</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168">
         <v>767</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169">
         <v>768</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170">
         <v>769</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171">
         <v>770</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172">
         <v>771</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173">
         <v>772</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176">
         <v>775</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177">
         <v>776</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178">
         <v>777</v>
       </c>
@@ -6948,7 +6950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184">
         <v>783</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185">
         <v>784</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187">
         <v>786</v>
       </c>
@@ -7190,10 +7192,10 @@
         <v>16</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191">
         <v>790</v>
       </c>
@@ -7228,7 +7230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192">
         <v>791</v>
       </c>
@@ -7368,7 +7370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196">
         <v>795</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197">
         <v>796</v>
       </c>
@@ -7438,7 +7440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198">
         <v>797</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199">
         <v>798</v>
       </c>
@@ -7527,8 +7529,8 @@
       <c r="F200">
         <v>0.438</v>
       </c>
-      <c r="G200" t="s">
-        <v>18</v>
+      <c r="G200" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H200" t="s">
         <v>16</v>
@@ -7578,7 +7580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202">
         <v>801</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203">
         <v>802</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208">
         <v>807</v>
       </c>
@@ -7823,7 +7825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209">
         <v>808</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210">
         <v>809</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212">
         <v>811</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213">
         <v>812</v>
       </c>
@@ -7998,7 +8000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214">
         <v>813</v>
       </c>
@@ -8033,7 +8035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215">
         <v>814</v>
       </c>
@@ -8068,7 +8070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216">
         <v>815</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217">
         <v>816</v>
       </c>
@@ -8138,7 +8140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218">
         <v>817</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219">
         <v>818</v>
       </c>
@@ -8208,7 +8210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220">
         <v>819</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221">
         <v>820</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222">
         <v>821</v>
       </c>
@@ -8348,7 +8350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224">
         <v>823</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225">
         <v>824</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227">
         <v>826</v>
       </c>
@@ -8523,7 +8525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229">
         <v>828</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231">
         <v>830</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232">
         <v>831</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234">
         <v>833</v>
       </c>
@@ -8733,7 +8735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235">
         <v>834</v>
       </c>
@@ -8768,7 +8770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236">
         <v>835</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237">
         <v>836</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238">
         <v>837</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239">
         <v>838</v>
       </c>
@@ -8908,7 +8910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240">
         <v>839</v>
       </c>
@@ -8978,7 +8980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242">
         <v>841</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243">
         <v>842</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244">
         <v>843</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245">
         <v>844</v>
       </c>
@@ -9118,7 +9120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246">
         <v>845</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247">
         <v>846</v>
       </c>
@@ -9188,7 +9190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248">
         <v>847</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249">
         <v>848</v>
       </c>
@@ -9398,7 +9400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254">
         <v>853</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255">
         <v>854</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256">
         <v>855</v>
       </c>
@@ -9503,7 +9505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257">
         <v>856</v>
       </c>
@@ -9573,7 +9575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259">
         <v>858</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260">
         <v>859</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261">
         <v>860</v>
       </c>
@@ -9678,7 +9680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262">
         <v>861</v>
       </c>
@@ -9748,7 +9750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264">
         <v>863</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265">
         <v>864</v>
       </c>
@@ -9818,7 +9820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266">
         <v>865</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269">
         <v>868</v>
       </c>
@@ -9993,7 +9995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271">
         <v>870</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272">
         <v>871</v>
       </c>
@@ -10063,7 +10065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273">
         <v>872</v>
       </c>
@@ -10098,7 +10100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274">
         <v>873</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275">
         <v>874</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276">
         <v>875</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277">
         <v>876</v>
       </c>
@@ -10273,7 +10275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279">
         <v>878</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280">
         <v>879</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281">
         <v>880</v>
       </c>
@@ -10378,7 +10380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282">
         <v>881</v>
       </c>
@@ -10413,7 +10415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283">
         <v>882</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285">
         <v>884</v>
       </c>
@@ -10518,7 +10520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286">
         <v>885</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287">
         <v>886</v>
       </c>
@@ -10693,7 +10695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291">
         <v>890</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292">
         <v>891</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294">
         <v>893</v>
       </c>
@@ -10868,7 +10870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296">
         <v>895</v>
       </c>
@@ -10938,7 +10940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298">
         <v>897</v>
       </c>
@@ -10973,7 +10975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299">
         <v>898</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300">
         <v>899</v>
       </c>
@@ -11043,7 +11045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301">
         <v>900</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302">
         <v>901</v>
       </c>
@@ -11113,7 +11115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303">
         <v>902</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304">
         <v>903</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305">
         <v>904</v>
       </c>
@@ -11218,7 +11220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306">
         <v>905</v>
       </c>
@@ -11253,7 +11255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307">
         <v>906</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308">
         <v>907</v>
       </c>
@@ -11323,7 +11325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309">
         <v>908</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310">
         <v>909</v>
       </c>
@@ -11463,7 +11465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" hidden="1">
       <c r="A313">
         <v>912</v>
       </c>
@@ -11498,7 +11500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" hidden="1">
       <c r="A314">
         <v>913</v>
       </c>
@@ -11638,7 +11640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" hidden="1">
       <c r="A318">
         <v>917</v>
       </c>
@@ -11778,7 +11780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" hidden="1">
       <c r="A322">
         <v>921</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323">
         <v>922</v>
       </c>
@@ -11848,7 +11850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" hidden="1">
       <c r="A324">
         <v>923</v>
       </c>
@@ -11883,7 +11885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" hidden="1">
       <c r="A325">
         <v>924</v>
       </c>
@@ -11918,7 +11920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" hidden="1">
       <c r="A326">
         <v>925</v>
       </c>
@@ -11953,7 +11955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" hidden="1">
       <c r="A327">
         <v>926</v>
       </c>
@@ -11988,7 +11990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" hidden="1">
       <c r="A328">
         <v>927</v>
       </c>
@@ -12023,7 +12025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" hidden="1">
       <c r="A329">
         <v>928</v>
       </c>
@@ -12058,7 +12060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" hidden="1">
       <c r="A330">
         <v>929</v>
       </c>
@@ -12093,7 +12095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" hidden="1">
       <c r="A331">
         <v>930</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" hidden="1">
       <c r="A332">
         <v>931</v>
       </c>
@@ -12163,7 +12165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333">
         <v>932</v>
       </c>
@@ -12233,7 +12235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335">
         <v>934</v>
       </c>
@@ -12338,7 +12340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" hidden="1">
       <c r="A338">
         <v>937</v>
       </c>
@@ -12443,7 +12445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" hidden="1">
       <c r="A341">
         <v>940</v>
       </c>
@@ -12478,7 +12480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" hidden="1">
       <c r="A342">
         <v>941</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" hidden="1">
       <c r="A344">
         <v>943</v>
       </c>
@@ -12583,7 +12585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345">
         <v>944</v>
       </c>
@@ -12618,7 +12620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" hidden="1">
       <c r="A346">
         <v>945</v>
       </c>
@@ -12653,7 +12655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" hidden="1">
       <c r="A347">
         <v>946</v>
       </c>
@@ -12688,7 +12690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348">
         <v>947</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" hidden="1">
       <c r="A349">
         <v>948</v>
       </c>
@@ -12758,7 +12760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" hidden="1">
       <c r="A350">
         <v>949</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352">
         <v>951</v>
       </c>
@@ -12863,7 +12865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353">
         <v>952</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" hidden="1">
       <c r="A354">
         <v>953</v>
       </c>
@@ -12934,28 +12936,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J354"/>
+  <autoFilter ref="A1:J354" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="NA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2"/>
+    <col min="1" max="1" width="9.33203125" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="9" width="8.85546875" style="5"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="9" width="8.88671875" style="5"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13489,14 +13497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B149" sqref="B149:B168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17093,20 +17101,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C327"/>
+  <autoFilter ref="A1:C327" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
